--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H2">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I2">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J2">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.42112094685021</v>
+        <v>1.425703666666666</v>
       </c>
       <c r="N2">
-        <v>1.42112094685021</v>
+        <v>4.277111</v>
       </c>
       <c r="O2">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="P2">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="Q2">
-        <v>116.3792543477347</v>
+        <v>143.7642285811092</v>
       </c>
       <c r="R2">
-        <v>116.3792543477347</v>
+        <v>1293.878057229983</v>
       </c>
       <c r="S2">
-        <v>0.03264462427488515</v>
+        <v>0.03089589995537292</v>
       </c>
       <c r="T2">
-        <v>0.03264462427488515</v>
+        <v>0.03089589995537293</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H3">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I3">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J3">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3543666947144</v>
+        <v>20.61433933333333</v>
       </c>
       <c r="N3">
-        <v>20.3543666947144</v>
+        <v>61.843018</v>
       </c>
       <c r="O3">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147049</v>
       </c>
       <c r="P3">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147048</v>
       </c>
       <c r="Q3">
-        <v>1666.871510057973</v>
+        <v>2078.696058133084</v>
       </c>
       <c r="R3">
-        <v>1666.871510057973</v>
+        <v>18708.26452319775</v>
       </c>
       <c r="S3">
-        <v>0.4675609451643834</v>
+        <v>0.4467257681800466</v>
       </c>
       <c r="T3">
-        <v>0.4675609451643834</v>
+        <v>0.4467257681800466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.892575438902</v>
+        <v>100.8373843333333</v>
       </c>
       <c r="H4">
-        <v>81.892575438902</v>
+        <v>302.512153</v>
       </c>
       <c r="I4">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448407</v>
       </c>
       <c r="J4">
-        <v>0.6700063583768269</v>
+        <v>0.6551985585448408</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.39195084369537</v>
+        <v>8.194356666666666</v>
       </c>
       <c r="N4">
-        <v>7.39195084369537</v>
+        <v>24.58307</v>
       </c>
       <c r="O4">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="P4">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="Q4">
-        <v>605.3458921079783</v>
+        <v>826.2974925610788</v>
       </c>
       <c r="R4">
-        <v>605.3458921079783</v>
+        <v>7436.67743304971</v>
       </c>
       <c r="S4">
-        <v>0.1698007889375584</v>
+        <v>0.1775768904094211</v>
       </c>
       <c r="T4">
-        <v>0.1698007889375584</v>
+        <v>0.1775768904094211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H5">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I5">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J5">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.42112094685021</v>
+        <v>1.425703666666666</v>
       </c>
       <c r="N5">
-        <v>1.42112094685021</v>
+        <v>4.277111</v>
       </c>
       <c r="O5">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="P5">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="Q5">
-        <v>31.33489097179324</v>
+        <v>34.08567954108754</v>
       </c>
       <c r="R5">
-        <v>31.33489097179324</v>
+        <v>306.7711158697879</v>
       </c>
       <c r="S5">
-        <v>0.008789502460741557</v>
+        <v>0.007325241858882845</v>
       </c>
       <c r="T5">
-        <v>0.008789502460741557</v>
+        <v>0.007325241858882845</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H6">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I6">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J6">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.3543666947144</v>
+        <v>20.61433933333333</v>
       </c>
       <c r="N6">
-        <v>20.3543666947144</v>
+        <v>61.843018</v>
       </c>
       <c r="O6">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147049</v>
       </c>
       <c r="P6">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147048</v>
       </c>
       <c r="Q6">
-        <v>448.801956365788</v>
+        <v>492.8469926082604</v>
       </c>
       <c r="R6">
-        <v>448.801956365788</v>
+        <v>4435.622933474344</v>
       </c>
       <c r="S6">
-        <v>0.1258898875191129</v>
+        <v>0.1059161345434442</v>
       </c>
       <c r="T6">
-        <v>0.1258898875191129</v>
+        <v>0.1059161345434442</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.049418834649</v>
+        <v>23.90796933333333</v>
       </c>
       <c r="H7">
-        <v>22.049418834649</v>
+        <v>71.72390799999999</v>
       </c>
       <c r="I7">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="J7">
-        <v>0.1803979266563737</v>
+        <v>0.1553438454249564</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.39195084369537</v>
+        <v>8.194356666666666</v>
       </c>
       <c r="N7">
-        <v>7.39195084369537</v>
+        <v>24.58307</v>
       </c>
       <c r="O7">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="P7">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="Q7">
-        <v>162.9882201577763</v>
+        <v>195.9104278930622</v>
       </c>
       <c r="R7">
-        <v>162.9882201577763</v>
+        <v>1763.19385103756</v>
       </c>
       <c r="S7">
-        <v>0.04571853667651924</v>
+        <v>0.04210246902262932</v>
       </c>
       <c r="T7">
-        <v>0.04571853667651924</v>
+        <v>0.04210246902262932</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.2845703180103</v>
+        <v>29.15819666666667</v>
       </c>
       <c r="H8">
-        <v>18.2845703180103</v>
+        <v>87.47459000000001</v>
       </c>
       <c r="I8">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="J8">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.42112094685021</v>
+        <v>1.425703666666666</v>
       </c>
       <c r="N8">
-        <v>1.42112094685021</v>
+        <v>4.277111</v>
       </c>
       <c r="O8">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="P8">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="Q8">
-        <v>25.98458588308004</v>
+        <v>41.57094790105444</v>
       </c>
       <c r="R8">
-        <v>25.98458588308004</v>
+        <v>374.13853110949</v>
       </c>
       <c r="S8">
-        <v>0.00728873069213082</v>
+        <v>0.008933876389677691</v>
       </c>
       <c r="T8">
-        <v>0.00728873069213082</v>
+        <v>0.008933876389677691</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.2845703180103</v>
+        <v>29.15819666666667</v>
       </c>
       <c r="H9">
-        <v>18.2845703180103</v>
+        <v>87.47459000000001</v>
       </c>
       <c r="I9">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="J9">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3543666947144</v>
+        <v>20.61433933333333</v>
       </c>
       <c r="N9">
-        <v>20.3543666947144</v>
+        <v>61.843018</v>
       </c>
       <c r="O9">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147049</v>
       </c>
       <c r="P9">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147048</v>
       </c>
       <c r="Q9">
-        <v>372.1708491080723</v>
+        <v>601.0769604347356</v>
       </c>
       <c r="R9">
-        <v>372.1708491080723</v>
+        <v>5409.69264391262</v>
       </c>
       <c r="S9">
-        <v>0.1043947016441293</v>
+        <v>0.1291754827912141</v>
       </c>
       <c r="T9">
-        <v>0.1043947016441293</v>
+        <v>0.1291754827912141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.2845703180103</v>
+        <v>29.15819666666667</v>
       </c>
       <c r="H10">
-        <v>18.2845703180103</v>
+        <v>87.47459000000001</v>
       </c>
       <c r="I10">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="J10">
-        <v>0.1495957149667994</v>
+        <v>0.1894575960302029</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.39195084369537</v>
+        <v>8.194356666666666</v>
       </c>
       <c r="N10">
-        <v>7.39195084369537</v>
+        <v>24.58307</v>
       </c>
       <c r="O10">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="P10">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="Q10">
-        <v>135.1586449888235</v>
+        <v>238.9326632434778</v>
       </c>
       <c r="R10">
-        <v>135.1586449888235</v>
+        <v>2150.3939691913</v>
       </c>
       <c r="S10">
-        <v>0.03791228263053928</v>
+        <v>0.05134823684931112</v>
       </c>
       <c r="T10">
-        <v>0.03791228263053928</v>
+        <v>0.05134823684931112</v>
       </c>
     </row>
   </sheetData>
